--- a/biology/Histoire de la zoologie et de la botanique/Jules_Prosper_Goudot/Jules_Prosper_Goudot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jules_Prosper_Goudot/Jules_Prosper_Goudot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Prosper Goudot, né en 1803 à Lons-le-Saulnier, mort le 14 février 1858 à Saint-Denis de la Réunion[1], est un explorateur naturaliste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Prosper Goudot, né en 1803 à Lons-le-Saulnier, mort le 14 février 1858 à Saint-Denis de la Réunion, est un explorateur naturaliste français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le frère cadet d'Étienne et Justin Goudot, également explorateurs. 
 En 1827, il reçoit une bourse du Muséum national d'histoire naturelle pour explorer la côte du Maghreb où il collecte des crustacés, araignées et insectes. En janvier 1829, de nouveau financé par le Muséum, il débarque à Madagascar, mais doit se contenter de rester au port de Toamasina, sans parvenir à pénétrer dans les terres. Il y constitue des collections de vertébrés et d'insectes dont une partie, à son retour en France, va au Muséum. 
@@ -546,7 +560,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs espèces lui ont été dédiées, dont :
 Boophis goudotii
